--- a/public/excelTemplate/订单明细模板.xlsx
+++ b/public/excelTemplate/订单明细模板.xlsx
@@ -80,9 +80,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -127,22 +127,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -157,6 +141,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -165,8 +156,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +205,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,69 +248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,50 +464,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +503,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -569,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,138 +581,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -721,10 +724,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1081,7 +1090,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1089,63 +1098,63 @@
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="4" max="5" width="21.375" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.25" customWidth="1"/>
     <col min="10" max="10" width="10.125"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
     </row>

--- a/public/excelTemplate/订单明细模板.xlsx
+++ b/public/excelTemplate/订单明细模板.xlsx
@@ -33,24 +33,7 @@
     <t>手机号</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>推荐人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>uuid</t>
-    </r>
+    <t>推荐人会员编号</t>
   </si>
   <si>
     <t>收件人地址</t>
@@ -80,11 +63,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +94,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,6 +121,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,30 +141,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,7 +194,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,17 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,54 +232,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -270,25 +247,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,157 +403,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +438,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,21 +481,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -523,6 +500,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,15 +538,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +558,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,7 +1067,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/public/excelTemplate/订单明细模板.xlsx
+++ b/public/excelTemplate/订单明细模板.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>微信订单列表</t>
+    <t>微信小程序订单列表</t>
   </si>
   <si>
     <t>订单来源</t>
@@ -94,9 +94,52 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,26 +152,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,16 +168,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,69 +200,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,79 +247,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,61 +397,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,36 +428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +438,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,6 +461,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,6 +498,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -491,24 +520,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,17 +538,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,19 +558,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,112 +579,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -698,19 +698,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1067,13 +1067,14 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="4" max="5" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="17.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.25" customWidth="1"/>
@@ -1086,12 +1087,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1101,7 +1102,7 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1110,13 +1111,13 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -1139,6 +1140,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+      <formula1>"1月,2月,3月,4月,5月,6月,7月,8月,9月,10月,11月,12月"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
